--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\keyaan\kicad\PicoKey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629EC5F0-7A39-4137-B3A4-5BF90588EF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D00EABC-9D94-42F9-ABF5-D66BE98E30B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Pcb Manufacturing + stencil</t>
   </si>
   <si>
-    <t>$23.82</t>
-  </si>
-  <si>
     <t>main pcb and smt stencil</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>https://lcsc.com</t>
+  </si>
+  <si>
+    <t>USD</t>
   </si>
 </sst>
 </file>
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,24 +418,35 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>23.82</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>21.113099999999999</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>44.93</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
     </row>
